--- a/data/Deng_2016_Fig4.xlsx
+++ b/data/Deng_2016_Fig4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E3BDFD-F59C-D246-A7E0-4803B84EC614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2759C2E-0150-E548-B6E3-7AC8F43419C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{B621DEE7-2771-AF4B-AA94-29469BEE9C85}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>T2B_Io[]</t>
-  </si>
-  <si>
     <t>0.02+0_mgkg</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Blood.antiPDL1[%ID/g]</t>
+  </si>
+  <si>
+    <t>Tumor_to_Blood[]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0.3</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>2</v>
@@ -799,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
         <v>3</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
@@ -890,7 +890,7 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
         <v>4</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>4</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>4</v>
@@ -981,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
         <v>6</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>

--- a/data/Deng_2016_Fig4.xlsx
+++ b/data/Deng_2016_Fig4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2759C2E-0150-E548-B6E3-7AC8F43419C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0809E-B01C-2049-9ACA-3E4A5F0E41A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{B621DEE7-2771-AF4B-AA94-29469BEE9C85}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>Blood.antiPDL1[%ID/g]</t>
   </si>
   <si>
-    <t>Tumor_to_Blood[]</t>
+    <t>Tumor_to_Blood_Io[]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Deng_2016_Fig4.xlsx
+++ b/data/Deng_2016_Fig4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/migueltenorio/Documents/GitHub/CIT-SimBiology-Toolbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD0809E-B01C-2049-9ACA-3E4A5F0E41A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525DD7E1-718E-1F42-9469-568145B0E756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{B621DEE7-2771-AF4B-AA94-29469BEE9C85}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{B621DEE7-2771-AF4B-AA94-29469BEE9C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>0.02+40_mgkg</t>
   </si>
   <si>
-    <t>Blood.antiPDL1[%ID/g]</t>
-  </si>
-  <si>
     <t>Tumor_to_Blood_Io[]</t>
+  </si>
+  <si>
+    <t>Blood.antiPDL1_Io[%ID/g]</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,13 +479,13 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
